--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -6,16 +6,128 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$47</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="132">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeUrgentCommunication</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-07-15T08:52:50+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>When there is a need to urgently communicate results of an order.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:ServiceRequest</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -123,9 +235,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Extension</t>
   </si>
   <si>
     <t/>
@@ -308,9 +417,6 @@
   </si>
   <si>
     <t>contactSystemValue</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication</t>
   </si>
   <si>
     <t>base64Binary
@@ -443,29 +549,193 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -512,4779 +782,4761 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ47">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -644,85 +644,93 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-urgent-communication</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-urgent-communication</t>
   </si>
   <si>
     <t>Version</t>
@@ -314,26 +314,7 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -355,72 +336,81 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>For example 'Try phone first but also send SMS and e-mail'</t>
+  </si>
+  <si>
+    <t>contactway</t>
+  </si>
+  <si>
+    <t>Will override any other known channel for partner for urgent communication</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>contactSystem</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-communication-method</t>
+  </si>
+  <si>
+    <t>contactSystemValue</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
-</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>For example 'Try phone first but also send SMS and e-mail'</t>
-  </si>
-  <si>
-    <t>contactway</t>
-  </si>
-  <si>
-    <t>Will override any other known channel for partner for urgent communication</t>
-  </si>
-  <si>
-    <t>contactSystem</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>contactSystemValue</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)SampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
   </si>
 </sst>
 </file>
@@ -741,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -750,9 +740,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -774,7 +764,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.93359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1108,7 +1098,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1406,14 +1396,14 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1428,14 +1418,12 @@
         <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>74</v>
@@ -1499,12 +1487,12 @@
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1512,7 +1500,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>82</v>
@@ -1527,22 +1515,24 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1584,10 +1574,10 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1599,23 +1589,23 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1627,17 +1617,15 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -1674,47 +1662,49 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>82</v>
@@ -1729,17 +1719,15 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -1788,27 +1776,27 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1831,13 +1819,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1888,7 +1876,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -1900,15 +1888,15 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1916,10 +1904,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -1931,24 +1919,22 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>74</v>
@@ -1978,39 +1964,39 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2018,7 +2004,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
@@ -2033,22 +2019,24 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2090,10 +2078,10 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2102,19 +2090,17 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2135,13 +2121,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2192,29 +2178,31 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2223,7 +2211,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2235,13 +2223,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2292,38 +2280,38 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2335,17 +2323,15 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2382,31 +2368,31 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>87</v>
@@ -2414,7 +2400,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2422,10 +2408,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2437,13 +2423,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2482,50 +2468,52 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2540,14 +2528,12 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -2584,16 +2570,16 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>93</v>
@@ -2611,12 +2597,12 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2624,7 +2610,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>82</v>
@@ -2639,17 +2625,15 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -2698,10 +2682,10 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -2713,12 +2697,12 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2729,7 +2713,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -2741,13 +2725,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2786,39 +2770,39 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2841,16 +2825,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2858,7 +2842,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
@@ -2900,7 +2884,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>82</v>
@@ -2915,12 +2899,12 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2943,13 +2927,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2988,19 +2972,17 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3012,18 +2994,18 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
@@ -3033,7 +3015,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3045,13 +3027,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3078,13 +3060,11 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3102,35 +3082,37 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>82</v>
@@ -3145,13 +3127,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3202,27 +3184,27 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3233,7 +3215,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3245,13 +3227,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3290,52 +3272,50 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -3392,16 +3372,16 @@
         <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>93</v>
@@ -3424,7 +3404,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3432,7 +3412,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>82</v>
@@ -3447,22 +3427,24 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>74</v>
@@ -3504,10 +3486,10 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -3519,23 +3501,23 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -3547,17 +3529,15 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -3594,39 +3574,39 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3634,7 +3614,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -3649,22 +3629,24 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -3706,10 +3688,10 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -3721,23 +3703,23 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -3749,17 +3731,15 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -3796,39 +3776,39 @@
         <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3851,16 +3831,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -3868,7 +3848,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>74</v>
@@ -3910,7 +3890,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>82</v>
@@ -3925,12 +3905,12 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3941,7 +3921,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -3953,13 +3933,13 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4010,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4022,1526 +4002,10 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -740,42 +740,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.93359375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.9375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -256,50 +256,50 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>party</t>
@@ -982,7 +982,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1001,25 +1001,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1070,27 +1070,27 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1113,7 +1113,7 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>29</v>
@@ -1158,19 +1158,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1182,7 +1182,7 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1200,10 +1200,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1215,7 +1215,7 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1284,7 +1284,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1303,25 +1303,25 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1372,22 +1372,22 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1415,7 +1415,7 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
@@ -1460,19 +1460,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1484,7 +1484,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -1500,10 +1500,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1577,10 +1577,10 @@
         <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -1605,7 +1605,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1680,7 +1680,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>111</v>
@@ -1707,7 +1707,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -1719,7 +1719,7 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>112</v>
@@ -1776,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1788,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -1807,25 +1807,25 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1876,22 +1876,22 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1919,7 +1919,7 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
@@ -1964,19 +1964,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -1988,7 +1988,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -2004,10 +2004,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2081,10 +2081,10 @@
         <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2109,19 +2109,19 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>107</v>
@@ -2184,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>113</v>
@@ -2223,7 +2223,7 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>114</v>
@@ -2280,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2292,7 +2292,7 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -2311,25 +2311,25 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="K16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2380,22 +2380,22 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -2423,7 +2423,7 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>29</v>
@@ -2468,19 +2468,19 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2492,7 +2492,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -2510,10 +2510,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2525,7 +2525,7 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>29</v>
@@ -2582,7 +2582,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2594,7 +2594,7 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -2613,25 +2613,25 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s" s="2">
+      <c r="K19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2682,22 +2682,22 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -2725,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>29</v>
@@ -2770,19 +2770,19 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB20" t="s" s="2">
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
+      <c r="AE20" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2794,7 +2794,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -2810,10 +2810,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -2887,10 +2887,10 @@
         <v>103</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -2915,7 +2915,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -2988,7 +2988,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3015,7 +3015,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3088,7 +3088,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3112,10 +3112,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3127,7 +3127,7 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>29</v>
@@ -3184,7 +3184,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3196,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
@@ -3215,25 +3215,25 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s" s="2">
+      <c r="K25" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3284,22 +3284,22 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3327,7 +3327,7 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>29</v>
@@ -3372,19 +3372,19 @@
         <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -3396,7 +3396,7 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
@@ -3412,10 +3412,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3489,10 +3489,10 @@
         <v>103</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -3517,19 +3517,19 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>107</v>
@@ -3592,7 +3592,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -3614,10 +3614,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -3691,10 +3691,10 @@
         <v>103</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -3794,7 +3794,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -3816,10 +3816,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -3893,10 +3893,10 @@
         <v>103</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -3996,7 +3996,7 @@
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>element:ServiceRequest</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -302,16 +305,28 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:party</t>
+  </si>
+  <si>
     <t>party</t>
   </si>
   <si>
     <t>party to inform</t>
   </si>
   <si>
+    <t>Extension.extension:party.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:party.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:party.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -336,6 +351,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:party.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -356,31 +374,70 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:instructions</t>
+  </si>
+  <si>
     <t>instructions</t>
   </si>
   <si>
     <t>For example 'Try phone first but also send SMS and e-mail'</t>
   </si>
   <si>
+    <t>Extension.extension:instructions.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:instructions.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:instructions.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:instructions.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway</t>
+  </si>
+  <si>
     <t>contactway</t>
   </si>
   <si>
     <t>Will override any other known channel for partner for urgent communication</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystem</t>
+  </si>
+  <si>
     <t>contactSystem</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystem.id</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystem.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.extension</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystem.url</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension:contactSystem.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
@@ -397,6 +454,9 @@
     <t>closed</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystem.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>valueCodeableConcept</t>
   </si>
   <si>
@@ -406,7 +466,28 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-communication-method</t>
   </si>
   <si>
+    <t>Extension.extension:contactway.extension:contactSystemValue</t>
+  </si>
+  <si>
     <t>contactSystemValue</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension:contactSystemValue.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension:contactSystemValue.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension:contactSystemValue.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.extension:contactSystemValue.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:contactway.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -731,7 +812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -740,42 +821,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.9375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -887,133 +968,139 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>83</v>
@@ -1021,301 +1108,310 @@
       <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
+      <c r="AK5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>83</v>
@@ -1323,503 +1419,518 @@
       <c r="L6" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>83</v>
@@ -1827,503 +1938,518 @@
       <c r="L11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>83</v>
@@ -2331,301 +2457,310 @@
       <c r="L16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>83</v>
@@ -2633,601 +2768,619 @@
       <c r="L19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>83</v>
@@ -3235,777 +3388,801 @@
       <c r="L25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Urgent communication is needed</t>
@@ -1000,13 +1004,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1066,7 +1070,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1077,10 +1081,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1091,7 +1095,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1103,13 +1107,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1160,13 +1164,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1175,15 +1179,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1191,7 +1195,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1206,13 +1210,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1251,19 +1255,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1275,7 +1279,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1283,23 +1287,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1311,13 +1315,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1368,7 +1372,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1380,7 +1384,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1388,10 +1392,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1402,7 +1406,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1414,13 +1418,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1471,13 +1475,13 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1486,15 +1490,15 @@
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1517,13 +1521,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1562,19 +1566,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1586,7 +1590,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -1594,10 +1598,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1605,10 +1609,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1620,16 +1624,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1637,7 +1641,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1679,13 +1683,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1694,15 +1698,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1713,7 +1717,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1725,13 +1729,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1782,33 +1786,33 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -1818,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1830,13 +1834,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1887,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1899,7 +1903,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1907,10 +1911,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1921,7 +1925,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1933,13 +1937,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1990,13 +1994,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -2005,15 +2009,15 @@
         <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2036,13 +2040,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2081,19 +2085,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2105,7 +2109,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2113,10 +2117,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2124,10 +2128,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2139,16 +2143,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2156,7 +2160,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2198,13 +2202,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2213,15 +2217,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2232,7 +2236,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2244,13 +2248,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2301,33 +2305,33 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -2349,13 +2353,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2406,7 +2410,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2418,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2426,10 +2430,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2440,7 +2444,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2452,13 +2456,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2509,13 +2513,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -2524,15 +2528,15 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2540,7 +2544,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -2555,13 +2559,13 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2600,19 +2604,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2624,7 +2628,7 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -2632,23 +2636,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -2660,13 +2664,13 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2717,7 +2721,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2729,7 +2733,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -2737,10 +2741,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2751,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -2763,13 +2767,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2820,13 +2824,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -2835,15 +2839,15 @@
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2866,13 +2870,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2911,19 +2915,19 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2935,7 +2939,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -2943,10 +2947,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2954,10 +2958,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -2969,16 +2973,16 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -2986,7 +2990,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>75</v>
@@ -3028,13 +3032,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3043,15 +3047,15 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3062,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3074,13 +3078,13 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3119,43 +3123,43 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>75</v>
@@ -3165,7 +3169,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3177,13 +3181,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3210,11 +3214,11 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -3232,43 +3236,43 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3280,13 +3284,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3337,7 +3341,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3349,7 +3353,7 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -3357,10 +3361,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3371,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3383,13 +3387,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3440,13 +3444,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -3455,15 +3459,15 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3486,13 +3490,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3531,19 +3535,19 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3555,7 +3559,7 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -3563,10 +3567,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3574,10 +3578,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -3589,16 +3593,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3606,7 +3610,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>75</v>
@@ -3648,13 +3652,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -3663,15 +3667,15 @@
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3682,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -3694,13 +3698,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3751,30 +3755,30 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3782,10 +3786,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -3797,16 +3801,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3814,7 +3818,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>75</v>
@@ -3856,13 +3860,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -3871,15 +3875,15 @@
         <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3902,13 +3906,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3959,30 +3963,30 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3990,10 +3994,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4005,16 +4009,16 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4064,13 +4068,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4079,15 +4083,15 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4110,13 +4114,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4167,22 +4171,22 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -449,19 +449,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.extension:contactway.extension:contactSystem.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t>preferred</t>
@@ -816,7 +803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -825,9 +812,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="84.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.91796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3111,26 +3098,26 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>116</v>
@@ -3156,7 +3143,7 @@
         <v>144</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>145</v>
@@ -3166,7 +3153,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
@@ -3181,13 +3168,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3214,11 +3201,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -3236,40 +3225,38 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>83</v>
@@ -3284,13 +3271,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3341,30 +3328,30 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3375,7 +3362,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3387,13 +3374,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3432,42 +3419,42 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3475,10 +3462,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -3490,22 +3477,24 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>75</v>
@@ -3535,42 +3524,42 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3578,7 +3567,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>83</v>
@@ -3593,24 +3582,22 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>75</v>
@@ -3652,10 +3639,10 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>83</v>
@@ -3664,7 +3651,7 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>110</v>
@@ -3672,10 +3659,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3683,7 +3670,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -3698,22 +3685,24 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>75</v>
@@ -3755,10 +3744,10 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>83</v>
@@ -3767,7 +3756,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>110</v>
@@ -3775,10 +3764,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3786,10 +3775,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -3801,24 +3790,22 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>75</v>
@@ -3860,10 +3847,10 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>83</v>
@@ -3872,7 +3859,7 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>110</v>
@@ -3880,10 +3867,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3891,10 +3878,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -3906,22 +3893,24 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>75</v>
@@ -3963,10 +3952,10 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -3975,7 +3964,7 @@
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>110</v>
@@ -3983,10 +3972,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3994,10 +3983,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4009,24 +3998,22 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>75</v>
@@ -4068,10 +4055,10 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>83</v>
@@ -4080,112 +4067,9 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK32" t="s" s="2">
         <v>110</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -127,117 +127,6 @@
   </si>
   <si>
     <t>element:ServiceRequest</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -604,10 +493,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -803,7 +692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -815,3262 +704,3147 @@
     <col min="1" max="1" width="69.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="84.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -192,10 +196,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:party</t>
@@ -834,7 +834,7 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -856,7 +856,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -868,13 +868,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -925,13 +925,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -940,15 +940,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -956,7 +956,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -971,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>29</v>
@@ -1016,19 +1016,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1040,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1051,7 +1051,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>60</v>
@@ -1061,10 +1061,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1076,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>61</v>
@@ -1133,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1145,7 +1145,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1167,7 +1167,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1179,13 +1179,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1236,13 +1236,13 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1251,7 +1251,7 @@
         <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1282,7 +1282,7 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>29</v>
@@ -1327,19 +1327,19 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -1351,7 +1351,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1370,10 +1370,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1447,10 +1447,10 @@
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
@@ -1478,7 +1478,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -1553,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
@@ -1570,7 +1570,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>82</v>
@@ -1583,7 +1583,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1595,7 +1595,7 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>83</v>
@@ -1652,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -1664,7 +1664,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1686,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1698,13 +1698,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1755,13 +1755,13 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
@@ -1770,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1801,7 +1801,7 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>29</v>
@@ -1846,19 +1846,19 @@
         <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -1870,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1889,10 +1889,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1966,10 +1966,10 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -1997,7 +1997,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2009,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>77</v>
@@ -2072,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2089,7 +2089,7 @@
         <v>88</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>89</v>
@@ -2114,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>90</v>
@@ -2171,7 +2171,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2183,7 +2183,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2205,7 +2205,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2217,13 +2217,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2274,13 +2274,13 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
@@ -2289,7 +2289,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -2320,7 +2320,7 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>29</v>
@@ -2365,19 +2365,19 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2389,7 +2389,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2410,10 +2410,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2425,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>29</v>
@@ -2482,7 +2482,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -2494,7 +2494,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2516,7 +2516,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2528,13 +2528,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2585,13 +2585,13 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -2600,7 +2600,7 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>29</v>
@@ -2676,19 +2676,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -2700,7 +2700,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2719,10 +2719,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -2796,10 +2796,10 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
@@ -2827,7 +2827,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -2900,7 +2900,7 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
@@ -2927,10 +2927,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -2942,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>29</v>
@@ -2999,7 +2999,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3011,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3033,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3045,13 +3045,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3102,13 +3102,13 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
@@ -3117,7 +3117,7 @@
         <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -3148,7 +3148,7 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>29</v>
@@ -3193,19 +3193,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3217,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3236,10 +3236,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3313,10 +3313,10 @@
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -3344,7 +3344,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -3356,7 +3356,7 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>77</v>
@@ -3419,7 +3419,7 @@
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
@@ -3444,10 +3444,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -3521,10 +3521,10 @@
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
@@ -3627,7 +3627,7 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
@@ -3652,10 +3652,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -3729,10 +3729,10 @@
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
@@ -3835,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>

--- a/branches/StructureDefinition-be-ext-urgent-communication.xlsx
+++ b/branches/StructureDefinition-be-ext-urgent-communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,117 @@
   </si>
   <si>
     <t>element:ServiceRequest</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -692,7 +803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -704,3147 +815,3262 @@
     <col min="1" max="1" width="69.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="84.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
